--- a/biology/Botanique/Crassula_ovata/Crassula_ovata.xlsx
+++ b/biology/Botanique/Crassula_ovata/Crassula_ovata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crassula ovata ou Arbre de Jade, Crassule ovale[1], est une espèce de plantes succulentes de la famille des Crassulaceae, originaire d'Afrique du Sud et commune dans les régions tempérées comme plante d'intérieur, et ailleurs comme plante ornementale de jardin. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crassula ovata ou Arbre de Jade, Crassule ovale, est une espèce de plantes succulentes de la famille des Crassulaceae, originaire d'Afrique du Sud et commune dans les régions tempérées comme plante d'intérieur, et ailleurs comme plante ornementale de jardin. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie et dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Crassula dérive du latin crassus, -a, -um, « épais », par allusion aux feuilles succulentes.
 L’épithète spécifique ovata dérive du latin ōvātus, -a, -um, « ovale, ayant la forme d'un œuf », là aussi par allusion à la forme ovale des feuilles.
@@ -544,10 +558,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crassula ovata est un arbuste sempervirent, très branchu et complètement glabre, pouvant atteindre 3 mètres de haut[2]. Il ne doit pas être confondue avec Crassula arborescens, moins répandue mais très ressemblant. Les tiges peuvent atteindre jusqu’à 20 cm à la base.
-Ses feuilles de 3 à 7 cm sont vert couleur de jade. Elles sont charnues, de forme elliptique à obovale-spatulée, entières, légèrement concave dessus, persistantes, parfois bordées d’un liseré rougeâtre[2]. Les feuilles épaisses (crassula signifie « épais » en latin) stockent de l’eau et sont recouvertes d’une cuticule pour limiter l’évaporation de l’eau par les feuilles.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crassula ovata est un arbuste sempervirent, très branchu et complètement glabre, pouvant atteindre 3 mètres de haut. Il ne doit pas être confondue avec Crassula arborescens, moins répandue mais très ressemblant. Les tiges peuvent atteindre jusqu’à 20 cm à la base.
+Ses feuilles de 3 à 7 cm sont vert couleur de jade. Elles sont charnues, de forme elliptique à obovale-spatulée, entières, légèrement concave dessus, persistantes, parfois bordées d’un liseré rougeâtre. Les feuilles épaisses (crassula signifie « épais » en latin) stockent de l’eau et sont recouvertes d’une cuticule pour limiter l’évaporation de l’eau par les feuilles.
 Certaines variétés peuvent développer une teinte rouge sur les bords des feuilles lorsqu'elles sont exposées à des niveaux élevés de rayonnement solaire. Une nouvelle croissance de la tige est de la même couleur que la texture des feuilles, mais devient marron et boisée avec l'âge.
 Les fleurs 5-mères en forme d’étoile sont portées par une inflorescence en corymbe dense à lâche. Le calice campanulé est 5 mm de diamètre alors que la corolle blanche ou légèrement rose est faite de 5 pétales, de 6-7(10) mm de long, oblongs à lancéolés, et étalés. Les étamines ont des filaments de 5 mm de long.
 Crassula ovata fleurit s’il bénéficie de conditions adéquates : à savoir une période hivernale fraîche avec 5 à 10 °C la nuit, des journées courtes et un manque d’eau pendant plusieurs semaines.
@@ -584,11 +600,13 @@
           <t>Taxonomie et classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le botaniste britannique Philip Miller (1691-1771) fut le premier à décrire la plante, dans le The Gardener Dictionary[3], en 1768, sous le nom de Cotyledon ovata avec des « feuilles ovales, unies, pointues, &amp; opposées »[4]. 
-George Claridge Druce révisa la nomenclature en 1917 et fit passer la plante dans le genre Crassula de la famille des Crassulaceae[5].
-Synonymes d’après Wikispecies[6]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le botaniste britannique Philip Miller (1691-1771) fut le premier à décrire la plante, dans le The Gardener Dictionary, en 1768, sous le nom de Cotyledon ovata avec des « feuilles ovales, unies, pointues, &amp; opposées ». 
+George Claridge Druce révisa la nomenclature en 1917 et fit passer la plante dans le genre Crassula de la famille des Crassulaceae.
+Synonymes d’après Wikispecies
 Cotyledon ovata Mill.
 Crassula argentea Thunb.
 Crassula articulata Zuccagni
@@ -624,7 +642,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est originaire de l’Afrique du Sud (Province du Cap, KwaZulu-Natal) et Mozambique.
 Elle est naturalisée en Californie, en Espagne,  dans les îles Canaries et à Madère. 
@@ -656,9 +676,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'exposition à la sève ou aux feuilles peut provoquer des dermatoses[7]. La toxine responsable de la toxicité n'est pas clairement connue.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'exposition à la sève ou aux feuilles peut provoquer des dermatoses. La toxine responsable de la toxicité n'est pas clairement connue.
 </t>
         </is>
       </c>
@@ -687,7 +709,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante succulente est commune dans le monde entier comme plante d'intérieur. C'est une plante très utilisée comme plante d'appartement car elle est très facile à entretenir. 
 </t>
@@ -718,7 +742,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est préférable de lui procurer une période de repos hivernal en maintenant des températures plus fraîches car la combinaison de températures élevées et d’une faible luminosité peut causer l’étiolement des tiges et la chute des feuilles. En zone tempérée, le Crassula ovata peut être sorti au soleil à l’extérieur pour l’été.
 Il est conseillé d'arroser tous les dix à vingt jours en été, et encore moins (jusqu'à un mois sec) en hiver. Laisser le sol sécher entre les arrosages est essentiel à la survie de la plante qui gère bien mieux la sécheresse qu'une trop grande humidité.
@@ -759,9 +785,11 @@
           <t>Aspects culturels</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans certains pays, le Crassula est offert pour porter chance et prospérité[8].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans certains pays, le Crassula est offert pour porter chance et prospérité.
 L'arbre de jade peut vivre pendant de nombreuses années s'il est bien entretenu. Avec sa couleur verte vive et ses feuilles brillantes qui se bouturent très facilement, il symbolise la croissance et la vitalité.
 L'arbre de jade est notamment apprécié en Asie pour ses propriétés symboliques et pour son apparence. En Chine, par exemple, l'arbre de jade est considéré comme un symbole de longévité, de bonheur et de prospérité. Sa forme, sa couleur vive et sa résistance en font également un élément apprécié dans la décoration intérieure. De plus, l'arbre de jade est facile à entretenir et peut être cultivé à l'intérieur, ce qui en fait un choix populaire.
 </t>
